--- a/이카운트자동판매등록프로그램_견적서.xlsx
+++ b/이카운트자동판매등록프로그램_견적서.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20364"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\AutoRegister\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD224AFD-151C-4235-A5E9-0ED0309C3DB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F47886-4472-4F20-94B9-5649FC39E100}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="견적서" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>수신</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,15 +138,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>품목 데이터 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>21일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>개발완료일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품목 데이터 조회(완전일치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처 데이터 조회(완전일치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처 코드 크롤링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -590,6 +592,51 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -605,9 +652,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -620,7 +664,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,9 +685,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,36 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,87 +1039,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I34"/>
+  <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.796875" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="2:9" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="45" t="s">
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="2:9" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="68">
+      <c r="F3" s="63">
         <v>44073</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="2:9" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" s="3" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -1116,121 +1127,121 @@
       <c r="G5" s="6"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="59" t="s">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="55"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="H7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49" t="s">
+    <row r="8" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="55"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="H8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="65" t="s">
+    <row r="9" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="38"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="55"/>
+    <row r="10" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="16"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+    <row r="11" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="55"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49" t="s">
+    <row r="12" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="55"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="17" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="2:9" s="19" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="55"/>
+    <row r="13" spans="2:9" s="19" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="17"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+    <row r="14" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="55"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="17"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
@@ -1244,7 +1255,7 @@
       </c>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="20" t="s">
         <v>25</v>
       </c>
@@ -1258,250 +1269,292 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="55"/>
+    <row r="17" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="10"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="62" t="s">
+    <row r="18" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
       <c r="H18" s="37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
       <c r="H19" s="37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="55"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="32">
-        <f>COUNTIF($H$7:$H$22,E25)</f>
-        <v>1</v>
-      </c>
-      <c r="G25" s="34">
-        <v>150000</v>
-      </c>
-      <c r="H25" s="34">
-        <f>F25*G25</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="48"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="32">
-        <f>COUNTIF($H$7:$H$22,E26)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="34">
-        <v>80000</v>
-      </c>
-      <c r="H26" s="34">
-        <f t="shared" ref="H26:H28" si="0">F26*G26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F27" s="32">
-        <f>COUNTIF($H$7:$H$22,E27)</f>
-        <v>2</v>
+        <f>COUNTIF($H$7:$H$24,E27)</f>
+        <v>1</v>
       </c>
       <c r="G27" s="34">
         <v>150000</v>
       </c>
       <c r="H27" s="34">
-        <f t="shared" si="0"/>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f>F27*G27</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F28" s="32">
-        <f>COUNTIF($H$7:$H$22,E28)</f>
-        <v>4</v>
+        <f>COUNTIF($H$7:$H$24,E28)</f>
+        <v>0</v>
       </c>
       <c r="G28" s="34">
         <v>80000</v>
       </c>
       <c r="H28" s="34">
-        <f t="shared" si="0"/>
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H28:H30" si="0">F28*G28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="32">
+        <f>COUNTIF($H$7:$H$24,E29)</f>
+        <v>6</v>
+      </c>
+      <c r="G29" s="34">
+        <v>150000</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" si="0"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="32">
+        <f>COUNTIF($H$7:$H$24,E30)</f>
+        <v>3</v>
+      </c>
+      <c r="G30" s="34">
+        <v>80000</v>
+      </c>
+      <c r="H30" s="34">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="32">
-        <f>COUNTIF($H$7:$H$22,E29)</f>
-        <v>1</v>
-      </c>
-      <c r="G29" s="35">
+      <c r="F31" s="32">
+        <f>COUNTIF($H$7:$H$24,E31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="35">
         <v>400000</v>
       </c>
-      <c r="H29" s="34">
-        <f>F29*G29</f>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="50" t="s">
+      <c r="H31" s="34">
+        <f>F31*G31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="23"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="9">
-        <f>SUM(H25:H30)</f>
-        <v>1170000</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="54"/>
-    </row>
-    <row r="34" spans="2:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="39" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="9">
+        <f>SUM(H27:H32)</f>
+        <v>1290000</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="68"/>
+    </row>
+    <row r="36" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B25:H25"/>
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B13:G13"/>
@@ -1512,22 +1565,6 @@
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B23:H23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
